--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,55 +22,85 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>001753</t>
+  </si>
+  <si>
     <t>010124</t>
   </si>
   <si>
     <t>010125</t>
   </si>
   <si>
-    <t>001753</t>
-  </si>
-  <si>
     <t>001797</t>
   </si>
   <si>
+    <t>红土创新新兴产业灵活配置混合</t>
+  </si>
+  <si>
     <t>兴银景气优选混合A</t>
   </si>
   <si>
     <t>兴银景气优选混合C</t>
   </si>
   <si>
-    <t>红土创新新兴产业灵活配置混合</t>
-  </si>
-  <si>
     <t>华融新利灵活配置混合</t>
   </si>
   <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>93.73</t>
+  </si>
+  <si>
     <t>81.71</t>
   </si>
   <si>
-    <t>93.73</t>
-  </si>
-  <si>
     <t>55.59</t>
   </si>
   <si>
+    <t>4.70</t>
+  </si>
+  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.70</t>
-  </si>
-  <si>
     <t>2.38</t>
+  </si>
+  <si>
+    <t>0.1485</t>
+  </si>
+  <si>
+    <t>0.0832</t>
+  </si>
+  <si>
+    <t>0.0322</t>
+  </si>
+  <si>
+    <t>0.0005</t>
   </si>
 </sst>
 </file>
@@ -428,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,84 +480,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001753</t>
-  </si>
-  <si>
-    <t>010124</t>
-  </si>
-  <si>
-    <t>010125</t>
-  </si>
-  <si>
-    <t>001797</t>
-  </si>
-  <si>
-    <t>红土创新新兴产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>兴银景气优选混合A</t>
-  </si>
-  <si>
-    <t>兴银景气优选混合C</t>
-  </si>
-  <si>
-    <t>华融新利灵活配置混合</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>4.16</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>93.73</t>
-  </si>
-  <si>
-    <t>81.71</t>
-  </si>
-  <si>
-    <t>55.59</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>0.1485</t>
-  </si>
-  <si>
-    <t>0.0832</t>
-  </si>
-  <si>
-    <t>0.0322</t>
-  </si>
-  <si>
-    <t>0.0005</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7725</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,3512 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8820</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7398</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7342</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7253</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5640</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3572</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0968</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0514</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9621</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9590</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7658</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6604</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6398</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5183,7 +5184,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -5199,6 +5199,90 @@
       </c>
       <c r="H92" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5212,7 +5213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5223,17 +5224,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5243,14 +5264,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.82</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5259,14 +5302,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.69</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5275,13 +5340,2368 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9262</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1957</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0689</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9637</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6725</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4674</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7616,7 +7617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7627,17 +7628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7647,14 +7668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.44</v>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7663,14 +7706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>91</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.82</v>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7679,14 +7744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.69</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7695,13 +7782,3792 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3707</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2786</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5733</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3908</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3286</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2890</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1557</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0931</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0703</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9275</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7450</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5544</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4662</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>55.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11466,7 +11467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11477,17 +11478,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11497,14 +11518,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>215.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -11513,14 +11556,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.44</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -11529,14 +11594,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.82</v>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -11545,14 +11632,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.69</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -11561,13 +11670,4953 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9702</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2466</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1595</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8942</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7417</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7149</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6273</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6128</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>59.11</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>35.44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>56.82</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>7.69</v>
+        <v>56.82</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -583,6 +600,3628 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>162.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6402</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2644</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1951</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3961</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3901</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1358</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7936</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5571</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>103.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5614,7 +9253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9463,7 +13102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11866,7 +15505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15373,7 +19012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16417,7 +20056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002192-融捷股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>41.44</v>
+        <v>26.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>59.11</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>35.44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>56.82</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>7.69</v>
+        <v>56.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -600,6 +617,2606 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2136</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1803</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0358</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016251</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4221,7 +6838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9253,7 +11870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13102,7 +15719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15505,7 +18122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19012,7 +21629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20056,7 +22673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
